--- a/REGULAR/JAVIER, HILARIO.xlsx
+++ b/REGULAR/JAVIER, HILARIO.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\PICNIC GROVE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85786283-7682-429F-B6DC-7A9812AE029A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="129">
   <si>
     <t>PERIOD</t>
   </si>
@@ -419,11 +418,14 @@
   <si>
     <t>2023</t>
   </si>
+  <si>
+    <t>3/23,24/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1112,25 +1114,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K794" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K794" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1437,34 +1439,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K794"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A384" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A384" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="G391" sqref="G391"/>
+      <selection pane="bottomLeft" activeCell="F388" sqref="F388"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1485,7 +1487,7 @@
       <c r="J2" s="53"/>
       <c r="K2" s="54"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1503,7 +1505,7 @@
       <c r="J3" s="55"/>
       <c r="K3" s="56"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1523,7 +1525,7 @@
       <c r="J4" s="53"/>
       <c r="K4" s="54"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1531,7 +1533,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1544,7 +1546,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="51" t="s">
@@ -1561,7 +1563,7 @@
       <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1596,7 +1598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1605,7 +1607,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>266.75</v>
+        <v>268</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1615,12 +1617,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>363.75</v>
+        <v>363</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -1642,7 +1644,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>34669</v>
       </c>
@@ -1662,7 +1664,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="48" t="s">
         <v>45</v>
       </c>
@@ -1680,7 +1682,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>34700</v>
       </c>
@@ -1700,7 +1702,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>34731</v>
       </c>
@@ -1720,7 +1722,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>34759</v>
       </c>
@@ -1740,7 +1742,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>34790</v>
       </c>
@@ -1760,7 +1762,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>34820</v>
       </c>
@@ -1780,7 +1782,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>34851</v>
       </c>
@@ -1800,7 +1802,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>34881</v>
       </c>
@@ -1820,7 +1822,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>34912</v>
       </c>
@@ -1840,7 +1842,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>34943</v>
       </c>
@@ -1860,7 +1862,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>34973</v>
       </c>
@@ -1880,7 +1882,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>35004</v>
       </c>
@@ -1900,7 +1902,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>35034</v>
       </c>
@@ -1924,7 +1926,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="48" t="s">
         <v>47</v>
       </c>
@@ -1942,7 +1944,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>35065</v>
       </c>
@@ -1962,7 +1964,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>35096</v>
       </c>
@@ -1982,7 +1984,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>35125</v>
       </c>
@@ -2002,7 +2004,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>35156</v>
       </c>
@@ -2022,7 +2024,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>35186</v>
       </c>
@@ -2042,7 +2044,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>35217</v>
       </c>
@@ -2062,7 +2064,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>35247</v>
       </c>
@@ -2082,7 +2084,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>35278</v>
       </c>
@@ -2102,7 +2104,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>35309</v>
       </c>
@@ -2122,7 +2124,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>35339</v>
       </c>
@@ -2142,7 +2144,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>35370</v>
       </c>
@@ -2162,7 +2164,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>35400</v>
       </c>
@@ -2186,7 +2188,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="48" t="s">
         <v>48</v>
       </c>
@@ -2204,7 +2206,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>35431</v>
       </c>
@@ -2224,7 +2226,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>35462</v>
       </c>
@@ -2244,7 +2246,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>35490</v>
       </c>
@@ -2264,7 +2266,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>35521</v>
       </c>
@@ -2284,7 +2286,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>35551</v>
       </c>
@@ -2304,7 +2306,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>35582</v>
       </c>
@@ -2324,7 +2326,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>35612</v>
       </c>
@@ -2344,7 +2346,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>35643</v>
       </c>
@@ -2364,7 +2366,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>35674</v>
       </c>
@@ -2384,7 +2386,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>35704</v>
       </c>
@@ -2404,7 +2406,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>35735</v>
       </c>
@@ -2424,7 +2426,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>35765</v>
       </c>
@@ -2448,7 +2450,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="48" t="s">
         <v>49</v>
       </c>
@@ -2466,7 +2468,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>35796</v>
       </c>
@@ -2486,7 +2488,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>35827</v>
       </c>
@@ -2506,7 +2508,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>35855</v>
       </c>
@@ -2526,7 +2528,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>35886</v>
       </c>
@@ -2546,7 +2548,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>35916</v>
       </c>
@@ -2566,7 +2568,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>35947</v>
       </c>
@@ -2586,7 +2588,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>35977</v>
       </c>
@@ -2612,7 +2614,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>36008</v>
       </c>
@@ -2632,7 +2634,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>36039</v>
       </c>
@@ -2652,7 +2654,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>36069</v>
       </c>
@@ -2672,7 +2674,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>36100</v>
       </c>
@@ -2692,7 +2694,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>36130</v>
       </c>
@@ -2712,7 +2714,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="48" t="s">
         <v>52</v>
       </c>
@@ -2730,7 +2732,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>36161</v>
       </c>
@@ -2750,7 +2752,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>36192</v>
       </c>
@@ -2770,7 +2772,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>36220</v>
       </c>
@@ -2790,7 +2792,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>36251</v>
       </c>
@@ -2810,7 +2812,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>36281</v>
       </c>
@@ -2830,7 +2832,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>36312</v>
       </c>
@@ -2850,7 +2852,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>36342</v>
       </c>
@@ -2870,7 +2872,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>36373</v>
       </c>
@@ -2890,7 +2892,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>36404</v>
       </c>
@@ -2910,7 +2912,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>36434</v>
       </c>
@@ -2930,7 +2932,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>36465</v>
       </c>
@@ -2950,7 +2952,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>36495</v>
       </c>
@@ -2976,7 +2978,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>54</v>
@@ -2998,7 +3000,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="48" t="s">
         <v>57</v>
       </c>
@@ -3016,7 +3018,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>36526</v>
       </c>
@@ -3036,7 +3038,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>36557</v>
       </c>
@@ -3056,7 +3058,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>36586</v>
       </c>
@@ -3082,7 +3084,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>36617</v>
       </c>
@@ -3102,7 +3104,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>36647</v>
       </c>
@@ -3128,7 +3130,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>36678</v>
       </c>
@@ -3148,7 +3150,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>36708</v>
       </c>
@@ -3168,7 +3170,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>36739</v>
       </c>
@@ -3188,7 +3190,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>36770</v>
       </c>
@@ -3208,7 +3210,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>36800</v>
       </c>
@@ -3228,7 +3230,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>36831</v>
       </c>
@@ -3248,7 +3250,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>36861</v>
       </c>
@@ -3272,7 +3274,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="48" t="s">
         <v>63</v>
       </c>
@@ -3290,7 +3292,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>36892</v>
       </c>
@@ -3310,7 +3312,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>36923</v>
       </c>
@@ -3336,7 +3338,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>36951</v>
       </c>
@@ -3356,7 +3358,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>36982</v>
       </c>
@@ -3376,7 +3378,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>37012</v>
       </c>
@@ -3396,7 +3398,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>37043</v>
       </c>
@@ -3416,7 +3418,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>37073</v>
       </c>
@@ -3436,7 +3438,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>37104</v>
       </c>
@@ -3456,7 +3458,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>37135</v>
       </c>
@@ -3476,7 +3478,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>37165</v>
       </c>
@@ -3496,7 +3498,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>37196</v>
       </c>
@@ -3516,7 +3518,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>37226</v>
       </c>
@@ -3540,7 +3542,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="48" t="s">
         <v>66</v>
       </c>
@@ -3558,7 +3560,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>37257</v>
       </c>
@@ -3578,7 +3580,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>37288</v>
       </c>
@@ -3598,7 +3600,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>37316</v>
       </c>
@@ -3618,7 +3620,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>37347</v>
       </c>
@@ -3638,7 +3640,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>37377</v>
       </c>
@@ -3658,7 +3660,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>37408</v>
       </c>
@@ -3678,7 +3680,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>37438</v>
       </c>
@@ -3698,7 +3700,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>37469</v>
       </c>
@@ -3718,7 +3720,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>37500</v>
       </c>
@@ -3738,7 +3740,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>37530</v>
       </c>
@@ -3758,7 +3760,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>37561</v>
       </c>
@@ -3778,7 +3780,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>37591</v>
       </c>
@@ -3802,7 +3804,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="48" t="s">
         <v>68</v>
       </c>
@@ -3820,7 +3822,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>37622</v>
       </c>
@@ -3840,7 +3842,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>37653</v>
       </c>
@@ -3860,7 +3862,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>37681</v>
       </c>
@@ -3880,7 +3882,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>37712</v>
       </c>
@@ -3900,7 +3902,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>37742</v>
       </c>
@@ -3926,7 +3928,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>37773</v>
       </c>
@@ -3946,7 +3948,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>37803</v>
       </c>
@@ -3966,7 +3968,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>37834</v>
       </c>
@@ -3986,7 +3988,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>37865</v>
       </c>
@@ -4006,7 +4008,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>37895</v>
       </c>
@@ -4026,7 +4028,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>37926</v>
       </c>
@@ -4046,7 +4048,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>37956</v>
       </c>
@@ -4070,7 +4072,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="48" t="s">
         <v>70</v>
       </c>
@@ -4088,7 +4090,7 @@
       <c r="J130" s="12"/>
       <c r="K130" s="15"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>37987</v>
       </c>
@@ -4108,7 +4110,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>38018</v>
       </c>
@@ -4128,7 +4130,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>38047</v>
       </c>
@@ -4154,7 +4156,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>38078</v>
       </c>
@@ -4174,7 +4176,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>38108</v>
       </c>
@@ -4194,7 +4196,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>38139</v>
       </c>
@@ -4214,7 +4216,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>38169</v>
       </c>
@@ -4234,7 +4236,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <v>38200</v>
       </c>
@@ -4254,7 +4256,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>38231</v>
       </c>
@@ -4274,7 +4276,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>38261</v>
       </c>
@@ -4294,7 +4296,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>38292</v>
       </c>
@@ -4314,7 +4316,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>38322</v>
       </c>
@@ -4338,7 +4340,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="48" t="s">
         <v>73</v>
       </c>
@@ -4356,7 +4358,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>38353</v>
       </c>
@@ -4376,7 +4378,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <v>38384</v>
       </c>
@@ -4396,7 +4398,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <v>38412</v>
       </c>
@@ -4416,7 +4418,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>38443</v>
       </c>
@@ -4436,7 +4438,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <v>38473</v>
       </c>
@@ -4456,7 +4458,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <v>38504</v>
       </c>
@@ -4476,7 +4478,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>38534</v>
       </c>
@@ -4496,7 +4498,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>38565</v>
       </c>
@@ -4516,7 +4518,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <v>38596</v>
       </c>
@@ -4536,7 +4538,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <v>38626</v>
       </c>
@@ -4556,7 +4558,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>38657</v>
       </c>
@@ -4576,7 +4578,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>38687</v>
       </c>
@@ -4600,7 +4602,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="48" t="s">
         <v>74</v>
       </c>
@@ -4618,7 +4620,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <v>38718</v>
       </c>
@@ -4638,7 +4640,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>38749</v>
       </c>
@@ -4658,7 +4660,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <v>38777</v>
       </c>
@@ -4678,7 +4680,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <v>38808</v>
       </c>
@@ -4698,7 +4700,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <v>38838</v>
       </c>
@@ -4718,7 +4720,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <v>38869</v>
       </c>
@@ -4738,7 +4740,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>38899</v>
       </c>
@@ -4758,7 +4760,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <v>38930</v>
       </c>
@@ -4778,7 +4780,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <v>38961</v>
       </c>
@@ -4798,7 +4800,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <v>38991</v>
       </c>
@@ -4818,7 +4820,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <v>39022</v>
       </c>
@@ -4838,7 +4840,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <v>39052</v>
       </c>
@@ -4862,7 +4864,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="48" t="s">
         <v>75</v>
       </c>
@@ -4880,7 +4882,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <v>39083</v>
       </c>
@@ -4900,7 +4902,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <v>39114</v>
       </c>
@@ -4920,7 +4922,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <v>39142</v>
       </c>
@@ -4940,7 +4942,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <v>39173</v>
       </c>
@@ -4960,7 +4962,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <v>39203</v>
       </c>
@@ -4980,7 +4982,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <v>39234</v>
       </c>
@@ -5000,7 +5002,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>39264</v>
       </c>
@@ -5020,7 +5022,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <v>39295</v>
       </c>
@@ -5040,7 +5042,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <v>39326</v>
       </c>
@@ -5060,7 +5062,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <v>39356</v>
       </c>
@@ -5080,7 +5082,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <v>39387</v>
       </c>
@@ -5100,7 +5102,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <v>39417</v>
       </c>
@@ -5124,7 +5126,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="48" t="s">
         <v>76</v>
       </c>
@@ -5142,7 +5144,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <v>39448</v>
       </c>
@@ -5162,7 +5164,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <v>39479</v>
       </c>
@@ -5182,7 +5184,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>39508</v>
       </c>
@@ -5202,7 +5204,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <v>39539</v>
       </c>
@@ -5222,7 +5224,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <v>39569</v>
       </c>
@@ -5242,7 +5244,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <v>39600</v>
       </c>
@@ -5262,7 +5264,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <v>39630</v>
       </c>
@@ -5282,7 +5284,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>39661</v>
       </c>
@@ -5302,7 +5304,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>39692</v>
       </c>
@@ -5322,7 +5324,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
         <v>39722</v>
       </c>
@@ -5342,7 +5344,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <v>39753</v>
       </c>
@@ -5362,7 +5364,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>39783</v>
       </c>
@@ -5386,7 +5388,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="48" t="s">
         <v>77</v>
       </c>
@@ -5404,7 +5406,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>39814</v>
       </c>
@@ -5424,7 +5426,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <v>39845</v>
       </c>
@@ -5444,7 +5446,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <v>39873</v>
       </c>
@@ -5464,7 +5466,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <v>39904</v>
       </c>
@@ -5484,7 +5486,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>39934</v>
       </c>
@@ -5504,7 +5506,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40">
         <v>39965</v>
       </c>
@@ -5524,7 +5526,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <v>39995</v>
       </c>
@@ -5544,7 +5546,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <v>40026</v>
       </c>
@@ -5564,7 +5566,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <v>40057</v>
       </c>
@@ -5584,7 +5586,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40">
         <v>40087</v>
       </c>
@@ -5604,7 +5606,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <v>40118</v>
       </c>
@@ -5624,7 +5626,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>40148</v>
       </c>
@@ -5648,7 +5650,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="48" t="s">
         <v>78</v>
       </c>
@@ -5666,7 +5668,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <v>40179</v>
       </c>
@@ -5686,7 +5688,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>40210</v>
       </c>
@@ -5706,7 +5708,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <v>40238</v>
       </c>
@@ -5726,7 +5728,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <v>40269</v>
       </c>
@@ -5746,7 +5748,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <v>40299</v>
       </c>
@@ -5766,7 +5768,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <v>40330</v>
       </c>
@@ -5786,7 +5788,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <v>40360</v>
       </c>
@@ -5806,7 +5808,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>40391</v>
       </c>
@@ -5826,7 +5828,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <v>40422</v>
       </c>
@@ -5846,7 +5848,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40">
         <v>40452</v>
       </c>
@@ -5866,7 +5868,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <v>40483</v>
       </c>
@@ -5886,7 +5888,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <v>40513</v>
       </c>
@@ -5910,7 +5912,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="48" t="s">
         <v>79</v>
       </c>
@@ -5928,7 +5930,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <v>40544</v>
       </c>
@@ -5948,7 +5950,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <v>40575</v>
       </c>
@@ -5968,7 +5970,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <v>40603</v>
       </c>
@@ -5988,7 +5990,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <v>40634</v>
       </c>
@@ -6008,7 +6010,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <v>40664</v>
       </c>
@@ -6028,7 +6030,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <v>40695</v>
       </c>
@@ -6048,7 +6050,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>40725</v>
       </c>
@@ -6068,7 +6070,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <v>40756</v>
       </c>
@@ -6088,7 +6090,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40">
         <v>40787</v>
       </c>
@@ -6108,7 +6110,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <v>40817</v>
       </c>
@@ -6128,7 +6130,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <v>40848</v>
       </c>
@@ -6148,7 +6150,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40">
         <v>40878</v>
       </c>
@@ -6172,7 +6174,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="48" t="s">
         <v>80</v>
       </c>
@@ -6190,7 +6192,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <v>40909</v>
       </c>
@@ -6210,7 +6212,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <v>40940</v>
       </c>
@@ -6230,7 +6232,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40">
         <v>40969</v>
       </c>
@@ -6250,7 +6252,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <v>41000</v>
       </c>
@@ -6276,7 +6278,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <v>41030</v>
       </c>
@@ -6296,7 +6298,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <v>41061</v>
       </c>
@@ -6316,7 +6318,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40">
         <v>41091</v>
       </c>
@@ -6336,7 +6338,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40">
         <v>41122</v>
       </c>
@@ -6356,7 +6358,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <v>41153</v>
       </c>
@@ -6376,7 +6378,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40">
         <v>41183</v>
       </c>
@@ -6402,7 +6404,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40">
         <v>41214</v>
       </c>
@@ -6422,7 +6424,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <v>41244</v>
       </c>
@@ -6448,7 +6450,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>67</v>
@@ -6467,7 +6469,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="48" t="s">
         <v>81</v>
       </c>
@@ -6485,7 +6487,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <v>41275</v>
       </c>
@@ -6511,7 +6513,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40">
         <v>41306</v>
       </c>
@@ -6531,7 +6533,7 @@
       <c r="J250" s="11"/>
       <c r="K250" s="20"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <v>41334</v>
       </c>
@@ -6551,7 +6553,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40">
         <v>41365</v>
       </c>
@@ -6571,7 +6573,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <v>41395</v>
       </c>
@@ -6591,7 +6593,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40">
         <v>41426</v>
       </c>
@@ -6611,7 +6613,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40">
         <v>41456</v>
       </c>
@@ -6631,7 +6633,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40">
         <v>41487</v>
       </c>
@@ -6651,7 +6653,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <v>41518</v>
       </c>
@@ -6671,7 +6673,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40">
         <v>41548</v>
       </c>
@@ -6691,7 +6693,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40">
         <v>41579</v>
       </c>
@@ -6717,7 +6719,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40">
         <v>41609</v>
       </c>
@@ -6743,7 +6745,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>87</v>
@@ -6763,7 +6765,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="48" t="s">
         <v>92</v>
       </c>
@@ -6781,7 +6783,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40">
         <v>41640</v>
       </c>
@@ -6807,7 +6809,7 @@
         <v>41670</v>
       </c>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40"/>
       <c r="B264" s="20" t="s">
         <v>71</v>
@@ -6826,7 +6828,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40">
         <v>41671</v>
       </c>
@@ -6846,7 +6848,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40">
         <v>41699</v>
       </c>
@@ -6866,7 +6868,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40">
         <v>41730</v>
       </c>
@@ -6886,7 +6888,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <v>41760</v>
       </c>
@@ -6906,7 +6908,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40">
         <v>41791</v>
       </c>
@@ -6932,7 +6934,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40">
         <v>41821</v>
       </c>
@@ -6952,7 +6954,7 @@
       <c r="J270" s="11"/>
       <c r="K270" s="20"/>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40">
         <v>41852</v>
       </c>
@@ -6978,7 +6980,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="40">
         <v>41883</v>
       </c>
@@ -6998,7 +7000,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <v>41913</v>
       </c>
@@ -7024,7 +7026,7 @@
         <v>41936</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40">
         <v>41944</v>
       </c>
@@ -7044,7 +7046,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40">
         <v>41974</v>
       </c>
@@ -7070,7 +7072,7 @@
         <v>41982</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>67</v>
@@ -7092,7 +7094,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>58</v>
@@ -7114,7 +7116,7 @@
         <v>41988</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="48" t="s">
         <v>98</v>
       </c>
@@ -7132,7 +7134,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40">
         <v>42005</v>
       </c>
@@ -7156,7 +7158,7 @@
         <v>42023</v>
       </c>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40">
         <v>42036</v>
       </c>
@@ -7182,7 +7184,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>58</v>
@@ -7201,7 +7203,7 @@
         <v>42051</v>
       </c>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <v>42064</v>
       </c>
@@ -7221,7 +7223,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40">
         <v>42095</v>
       </c>
@@ -7247,7 +7249,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40">
         <v>42125</v>
       </c>
@@ -7267,7 +7269,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <v>42156</v>
       </c>
@@ -7287,7 +7289,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40">
         <v>42186</v>
       </c>
@@ -7307,7 +7309,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40">
         <v>42217</v>
       </c>
@@ -7327,7 +7329,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40">
         <v>42248</v>
       </c>
@@ -7347,7 +7349,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <v>42278</v>
       </c>
@@ -7367,7 +7369,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40">
         <v>42309</v>
       </c>
@@ -7393,7 +7395,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40">
         <v>42339</v>
       </c>
@@ -7413,7 +7415,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="48" t="s">
         <v>104</v>
       </c>
@@ -7431,7 +7433,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40">
         <v>42370</v>
       </c>
@@ -7451,7 +7453,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40">
         <v>42401</v>
       </c>
@@ -7471,7 +7473,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40">
         <v>42430</v>
       </c>
@@ -7491,7 +7493,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <v>42461</v>
       </c>
@@ -7511,7 +7513,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40">
         <v>42491</v>
       </c>
@@ -7537,7 +7539,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40">
         <v>42522</v>
       </c>
@@ -7557,7 +7559,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <v>42552</v>
       </c>
@@ -7577,7 +7579,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40">
         <v>42583</v>
       </c>
@@ -7597,7 +7599,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40">
         <v>42614</v>
       </c>
@@ -7617,7 +7619,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <v>42644</v>
       </c>
@@ -7637,7 +7639,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40">
         <v>42675</v>
       </c>
@@ -7657,7 +7659,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40">
         <v>42705</v>
       </c>
@@ -7681,7 +7683,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="48" t="s">
         <v>106</v>
       </c>
@@ -7699,7 +7701,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40">
         <v>42736</v>
       </c>
@@ -7723,7 +7725,7 @@
         <v>42754</v>
       </c>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <v>42767</v>
       </c>
@@ -7743,7 +7745,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40">
         <v>42795</v>
       </c>
@@ -7769,7 +7771,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40">
         <v>42826</v>
       </c>
@@ -7789,7 +7791,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40">
         <v>42856</v>
       </c>
@@ -7809,7 +7811,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>42887</v>
       </c>
@@ -7835,7 +7837,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40">
         <v>42917</v>
       </c>
@@ -7855,7 +7857,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="20"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40">
         <v>42948</v>
       </c>
@@ -7875,7 +7877,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40">
         <v>42979</v>
       </c>
@@ -7895,7 +7897,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <v>43009</v>
       </c>
@@ -7915,7 +7917,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40">
         <v>43040</v>
       </c>
@@ -7941,7 +7943,7 @@
         <v>43042</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="40">
         <v>43070</v>
       </c>
@@ -7967,7 +7969,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="48" t="s">
         <v>111</v>
       </c>
@@ -7985,7 +7987,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40">
         <v>43101</v>
       </c>
@@ -8005,7 +8007,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40">
         <v>43132</v>
       </c>
@@ -8025,7 +8027,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40">
         <v>43160</v>
       </c>
@@ -8045,7 +8047,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40">
         <v>43191</v>
       </c>
@@ -8065,7 +8067,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <v>43221</v>
       </c>
@@ -8085,7 +8087,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40">
         <v>43252</v>
       </c>
@@ -8105,7 +8107,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <v>43282</v>
       </c>
@@ -8125,7 +8127,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40">
         <v>43313</v>
       </c>
@@ -8145,7 +8147,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40">
         <v>43344</v>
       </c>
@@ -8171,7 +8173,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <v>43374</v>
       </c>
@@ -8195,7 +8197,7 @@
         <v>43407</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40">
         <v>43405</v>
       </c>
@@ -8215,7 +8217,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40">
         <v>43435</v>
       </c>
@@ -8235,7 +8237,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="48" t="s">
         <v>113</v>
       </c>
@@ -8253,7 +8255,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40">
         <v>43466</v>
       </c>
@@ -8277,7 +8279,7 @@
         <v>43484</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40">
         <v>43497</v>
       </c>
@@ -8297,7 +8299,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <v>43525</v>
       </c>
@@ -8317,7 +8319,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40">
         <v>43556</v>
       </c>
@@ -8337,7 +8339,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40">
         <v>43586</v>
       </c>
@@ -8363,7 +8365,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <v>43617</v>
       </c>
@@ -8383,7 +8385,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <v>43647</v>
       </c>
@@ -8403,7 +8405,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <v>43678</v>
       </c>
@@ -8423,7 +8425,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40">
         <v>43709</v>
       </c>
@@ -8443,7 +8445,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40">
         <v>43739</v>
       </c>
@@ -8463,7 +8465,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <v>43770</v>
       </c>
@@ -8489,7 +8491,7 @@
         <v>43772</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40">
         <v>43800</v>
       </c>
@@ -8509,7 +8511,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="48" t="s">
         <v>115</v>
       </c>
@@ -8527,7 +8529,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <v>43831</v>
       </c>
@@ -8547,7 +8549,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="40">
         <v>43862</v>
       </c>
@@ -8567,7 +8569,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <v>43891</v>
       </c>
@@ -8587,7 +8589,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40">
         <v>43922</v>
       </c>
@@ -8607,7 +8609,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40">
         <v>43952</v>
       </c>
@@ -8627,7 +8629,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <v>43983</v>
       </c>
@@ -8647,7 +8649,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40">
         <v>44013</v>
       </c>
@@ -8667,7 +8669,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40">
         <v>44044</v>
       </c>
@@ -8687,7 +8689,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>44075</v>
       </c>
@@ -8707,7 +8709,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <v>44105</v>
       </c>
@@ -8727,7 +8729,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40">
         <v>44136</v>
       </c>
@@ -8753,7 +8755,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <v>44166</v>
       </c>
@@ -8777,7 +8779,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="48" t="s">
         <v>117</v>
       </c>
@@ -8795,7 +8797,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <v>44197</v>
       </c>
@@ -8815,7 +8817,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40">
         <v>44228</v>
       </c>
@@ -8835,7 +8837,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <v>44256</v>
       </c>
@@ -8855,7 +8857,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40">
         <v>44287</v>
       </c>
@@ -8875,7 +8877,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40">
         <v>44317</v>
       </c>
@@ -8895,7 +8897,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <v>44348</v>
       </c>
@@ -8915,7 +8917,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <v>44378</v>
       </c>
@@ -8935,7 +8937,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <v>44409</v>
       </c>
@@ -8955,7 +8957,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40">
         <v>44440</v>
       </c>
@@ -8975,7 +8977,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40">
         <v>44470</v>
       </c>
@@ -8995,7 +8997,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <v>44501</v>
       </c>
@@ -9021,7 +9023,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>119</v>
@@ -9038,7 +9040,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40"/>
       <c r="B370" s="20" t="s">
         <v>118</v>
@@ -9057,7 +9059,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="40">
         <v>44531</v>
       </c>
@@ -9081,7 +9083,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="48" t="s">
         <v>123</v>
       </c>
@@ -9099,7 +9101,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40">
         <v>44562</v>
       </c>
@@ -9121,7 +9123,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40">
         <v>44593</v>
       </c>
@@ -9141,7 +9143,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <v>44621</v>
       </c>
@@ -9161,7 +9163,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40">
         <v>44652</v>
       </c>
@@ -9181,7 +9183,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40">
         <v>44682</v>
       </c>
@@ -9201,7 +9203,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40">
         <v>44713</v>
       </c>
@@ -9221,7 +9223,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <v>44743</v>
       </c>
@@ -9241,7 +9243,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40">
         <v>44774</v>
       </c>
@@ -9261,7 +9263,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <v>44805</v>
       </c>
@@ -9281,7 +9283,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <v>44835</v>
       </c>
@@ -9307,7 +9309,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <v>44866</v>
       </c>
@@ -9333,7 +9335,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <v>44896</v>
       </c>
@@ -9359,7 +9361,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="48" t="s">
         <v>127</v>
       </c>
@@ -9377,7 +9379,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <v>44927</v>
       </c>
@@ -9401,7 +9403,7 @@
         <v>44945</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40">
         <v>44958</v>
       </c>
@@ -9421,25 +9423,33 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40">
         <v>44986</v>
       </c>
-      <c r="B388" s="20"/>
-      <c r="C388" s="13"/>
+      <c r="B388" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C388" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D388" s="39"/>
       <c r="E388" s="9"/>
       <c r="F388" s="20"/>
-      <c r="G388" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H388" s="39"/>
+      <c r="G388" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H388" s="39">
+        <v>2</v>
+      </c>
       <c r="I388" s="9"/>
       <c r="J388" s="11"/>
-      <c r="K388" s="20"/>
-    </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K388" s="20" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <v>45017</v>
       </c>
@@ -9457,7 +9467,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <v>45047</v>
       </c>
@@ -9475,7 +9485,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40">
         <v>45078</v>
       </c>
@@ -9493,7 +9503,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40">
         <v>45108</v>
       </c>
@@ -9511,7 +9521,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
         <v>45139</v>
       </c>
@@ -9529,7 +9539,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40">
         <v>45170</v>
       </c>
@@ -9547,7 +9557,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40">
         <v>45200</v>
       </c>
@@ -9565,7 +9575,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40">
         <v>45231</v>
       </c>
@@ -9583,7 +9593,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40">
         <v>45261</v>
       </c>
@@ -9601,7 +9611,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="40">
         <v>45292</v>
       </c>
@@ -9619,7 +9629,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
         <v>45323</v>
       </c>
@@ -9637,7 +9647,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40">
         <v>45352</v>
       </c>
@@ -9655,7 +9665,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40">
         <v>45383</v>
       </c>
@@ -9673,7 +9683,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40">
         <v>45413</v>
       </c>
@@ -9691,7 +9701,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
         <v>45444</v>
       </c>
@@ -9709,7 +9719,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <v>45474</v>
       </c>
@@ -9727,7 +9737,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40">
         <v>45505</v>
       </c>
@@ -9745,7 +9755,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40">
         <v>45536</v>
       </c>
@@ -9763,7 +9773,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40">
         <v>45566</v>
       </c>
@@ -9781,7 +9791,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <v>45597</v>
       </c>
@@ -9799,7 +9809,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40">
         <v>45627</v>
       </c>
@@ -9817,7 +9827,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40">
         <v>45658</v>
       </c>
@@ -9835,7 +9845,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40">
         <v>45689</v>
       </c>
@@ -9853,7 +9863,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <v>45717</v>
       </c>
@@ -9871,7 +9881,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <v>45748</v>
       </c>
@@ -9889,7 +9899,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40">
         <v>45778</v>
       </c>
@@ -9907,7 +9917,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
         <v>45809</v>
       </c>
@@ -9925,7 +9935,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40">
         <v>45839</v>
       </c>
@@ -9943,7 +9953,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
         <v>45870</v>
       </c>
@@ -9961,7 +9971,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
         <v>45901</v>
       </c>
@@ -9979,7 +9989,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <v>45931</v>
       </c>
@@ -9997,7 +10007,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
         <v>45962</v>
       </c>
@@ -10015,7 +10025,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <v>45992</v>
       </c>
@@ -10033,7 +10043,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40">
         <v>46023</v>
       </c>
@@ -10051,7 +10061,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40">
         <v>46054</v>
       </c>
@@ -10069,7 +10079,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
         <v>46082</v>
       </c>
@@ -10087,7 +10097,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40">
         <v>46113</v>
       </c>
@@ -10105,7 +10115,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40">
         <v>46143</v>
       </c>
@@ -10123,7 +10133,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
         <v>46174</v>
       </c>
@@ -10141,7 +10151,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40">
         <v>46204</v>
       </c>
@@ -10159,7 +10169,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <v>46235</v>
       </c>
@@ -10177,7 +10187,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40">
         <v>46266</v>
       </c>
@@ -10195,7 +10205,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
         <v>46296</v>
       </c>
@@ -10213,7 +10223,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40">
         <v>46327</v>
       </c>
@@ -10231,7 +10241,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="40">
         <v>46357</v>
       </c>
@@ -10249,7 +10259,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <v>46388</v>
       </c>
@@ -10267,7 +10277,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40">
         <v>46419</v>
       </c>
@@ -10285,7 +10295,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40">
         <v>46447</v>
       </c>
@@ -10303,7 +10313,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
         <v>46478</v>
       </c>
@@ -10321,7 +10331,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
         <v>46508</v>
       </c>
@@ -10339,7 +10349,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <v>46539</v>
       </c>
@@ -10357,7 +10367,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40">
         <v>46569</v>
       </c>
@@ -10375,7 +10385,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
         <v>46600</v>
       </c>
@@ -10393,7 +10403,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <v>46631</v>
       </c>
@@ -10411,7 +10421,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40">
         <v>46661</v>
       </c>
@@ -10429,7 +10439,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <v>46692</v>
       </c>
@@ -10447,7 +10457,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40">
         <v>46722</v>
       </c>
@@ -10465,7 +10475,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40">
         <v>46753</v>
       </c>
@@ -10483,7 +10493,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40">
         <v>46784</v>
       </c>
@@ -10501,7 +10511,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40">
         <v>46813</v>
       </c>
@@ -10519,7 +10529,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
         <v>46844</v>
       </c>
@@ -10537,7 +10547,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40">
         <v>46874</v>
       </c>
@@ -10555,7 +10565,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
         <v>46905</v>
       </c>
@@ -10573,7 +10583,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40">
         <v>46935</v>
       </c>
@@ -10591,7 +10601,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
         <v>46966</v>
       </c>
@@ -10609,7 +10619,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <v>46997</v>
       </c>
@@ -10627,7 +10637,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
         <v>47027</v>
       </c>
@@ -10645,7 +10655,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="40">
         <v>47058</v>
       </c>
@@ -10663,7 +10673,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <v>47088</v>
       </c>
@@ -10681,7 +10691,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <v>47119</v>
       </c>
@@ -10699,7 +10709,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40">
         <v>47150</v>
       </c>
@@ -10717,7 +10727,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40">
         <v>47178</v>
       </c>
@@ -10735,7 +10745,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
         <v>47209</v>
       </c>
@@ -10753,7 +10763,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40">
         <v>47239</v>
       </c>
@@ -10771,7 +10781,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40">
         <v>47270</v>
       </c>
@@ -10789,7 +10799,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <v>47300</v>
       </c>
@@ -10807,7 +10817,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40">
         <v>47331</v>
       </c>
@@ -10825,7 +10835,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40">
         <v>47362</v>
       </c>
@@ -10843,7 +10853,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40">
         <v>47392</v>
       </c>
@@ -10861,7 +10871,7 @@
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <v>47423</v>
       </c>
@@ -10879,7 +10889,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40">
         <v>47453</v>
       </c>
@@ -10897,7 +10907,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40">
         <v>47484</v>
       </c>
@@ -10915,7 +10925,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <v>47515</v>
       </c>
@@ -10933,7 +10943,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40">
         <v>47543</v>
       </c>
@@ -10951,7 +10961,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40">
         <v>47574</v>
       </c>
@@ -10969,7 +10979,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40">
         <v>47604</v>
       </c>
@@ -10987,7 +10997,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
         <v>47635</v>
       </c>
@@ -11005,7 +11015,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40">
         <v>47665</v>
       </c>
@@ -11023,7 +11033,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40">
         <v>47696</v>
       </c>
@@ -11041,7 +11051,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
         <v>47727</v>
       </c>
@@ -11059,7 +11069,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40">
         <v>47757</v>
       </c>
@@ -11077,7 +11087,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
         <v>47788</v>
       </c>
@@ -11095,7 +11105,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40">
         <v>47818</v>
       </c>
@@ -11113,7 +11123,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
         <v>47849</v>
       </c>
@@ -11131,7 +11141,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
         <v>47880</v>
       </c>
@@ -11149,7 +11159,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40">
         <v>47908</v>
       </c>
@@ -11167,7 +11177,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
         <v>47939</v>
       </c>
@@ -11185,7 +11195,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40">
         <v>47969</v>
       </c>
@@ -11203,7 +11213,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="40">
         <v>48000</v>
       </c>
@@ -11221,7 +11231,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
         <v>48030</v>
       </c>
@@ -11239,7 +11249,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40">
         <v>48061</v>
       </c>
@@ -11257,7 +11267,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40">
         <v>48092</v>
       </c>
@@ -11275,7 +11285,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40">
         <v>48122</v>
       </c>
@@ -11293,7 +11303,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
         <v>48153</v>
       </c>
@@ -11311,7 +11321,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
         <v>48183</v>
       </c>
@@ -11329,7 +11339,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
         <v>48214</v>
       </c>
@@ -11347,7 +11357,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <v>48245</v>
       </c>
@@ -11365,7 +11375,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40">
         <v>48274</v>
       </c>
@@ -11383,7 +11393,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40">
         <v>48305</v>
       </c>
@@ -11401,7 +11411,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
         <v>48335</v>
       </c>
@@ -11419,7 +11429,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
         <v>48366</v>
       </c>
@@ -11437,7 +11447,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
         <v>48396</v>
       </c>
@@ -11455,7 +11465,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
         <v>48427</v>
       </c>
@@ -11473,7 +11483,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
         <v>48458</v>
       </c>
@@ -11491,7 +11501,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
         <v>48488</v>
       </c>
@@ -11509,7 +11519,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <v>48519</v>
       </c>
@@ -11527,7 +11537,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40">
         <v>48549</v>
       </c>
@@ -11545,7 +11555,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
         <v>48580</v>
       </c>
@@ -11563,7 +11573,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40">
         <v>48611</v>
       </c>
@@ -11581,7 +11591,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40"/>
       <c r="B508" s="20"/>
       <c r="C508" s="13"/>
@@ -11597,7 +11607,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40"/>
       <c r="B509" s="20"/>
       <c r="C509" s="13"/>
@@ -11613,7 +11623,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40"/>
       <c r="B510" s="20"/>
       <c r="C510" s="13"/>
@@ -11629,7 +11639,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40"/>
       <c r="B511" s="20"/>
       <c r="C511" s="13"/>
@@ -11645,7 +11655,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40"/>
       <c r="B512" s="20"/>
       <c r="C512" s="13"/>
@@ -11661,7 +11671,7 @@
       <c r="J512" s="11"/>
       <c r="K512" s="20"/>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40"/>
       <c r="B513" s="20"/>
       <c r="C513" s="13"/>
@@ -11677,7 +11687,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40"/>
       <c r="B514" s="20"/>
       <c r="C514" s="13"/>
@@ -11693,7 +11703,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40"/>
       <c r="B515" s="20"/>
       <c r="C515" s="13"/>
@@ -11709,7 +11719,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40"/>
       <c r="B516" s="20"/>
       <c r="C516" s="13"/>
@@ -11725,7 +11735,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40"/>
       <c r="B517" s="20"/>
       <c r="C517" s="13"/>
@@ -11741,7 +11751,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40"/>
       <c r="B518" s="20"/>
       <c r="C518" s="13"/>
@@ -11757,7 +11767,7 @@
       <c r="J518" s="11"/>
       <c r="K518" s="20"/>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40"/>
       <c r="B519" s="20"/>
       <c r="C519" s="13"/>
@@ -11773,7 +11783,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40"/>
       <c r="B520" s="20"/>
       <c r="C520" s="13"/>
@@ -11789,7 +11799,7 @@
       <c r="J520" s="11"/>
       <c r="K520" s="20"/>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40"/>
       <c r="B521" s="20"/>
       <c r="C521" s="13"/>
@@ -11805,7 +11815,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40"/>
       <c r="B522" s="20"/>
       <c r="C522" s="13"/>
@@ -11821,7 +11831,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40"/>
       <c r="B523" s="20"/>
       <c r="C523" s="13"/>
@@ -11837,7 +11847,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40"/>
       <c r="B524" s="20"/>
       <c r="C524" s="13"/>
@@ -11853,7 +11863,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40"/>
       <c r="B525" s="20"/>
       <c r="C525" s="13"/>
@@ -11869,7 +11879,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="20"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40"/>
       <c r="B526" s="20"/>
       <c r="C526" s="13"/>
@@ -11885,7 +11895,7 @@
       <c r="J526" s="11"/>
       <c r="K526" s="20"/>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40"/>
       <c r="B527" s="20"/>
       <c r="C527" s="13"/>
@@ -11901,7 +11911,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40"/>
       <c r="B528" s="20"/>
       <c r="C528" s="13"/>
@@ -11917,7 +11927,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="20"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40"/>
       <c r="B529" s="20"/>
       <c r="C529" s="13"/>
@@ -11933,7 +11943,7 @@
       <c r="J529" s="11"/>
       <c r="K529" s="20"/>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40"/>
       <c r="B530" s="20"/>
       <c r="C530" s="13"/>
@@ -11949,7 +11959,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40"/>
       <c r="B531" s="20"/>
       <c r="C531" s="13"/>
@@ -11965,7 +11975,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40"/>
       <c r="B532" s="20"/>
       <c r="C532" s="13"/>
@@ -11981,7 +11991,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40"/>
       <c r="B533" s="20"/>
       <c r="C533" s="13"/>
@@ -11997,7 +12007,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40"/>
       <c r="B534" s="20"/>
       <c r="C534" s="13"/>
@@ -12013,7 +12023,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40"/>
       <c r="B535" s="20"/>
       <c r="C535" s="13"/>
@@ -12029,7 +12039,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40"/>
       <c r="B536" s="20"/>
       <c r="C536" s="13"/>
@@ -12045,7 +12055,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40"/>
       <c r="B537" s="20"/>
       <c r="C537" s="13"/>
@@ -12061,7 +12071,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40"/>
       <c r="B538" s="20"/>
       <c r="C538" s="13"/>
@@ -12077,7 +12087,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40"/>
       <c r="B539" s="20"/>
       <c r="C539" s="13"/>
@@ -12093,7 +12103,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40"/>
       <c r="B540" s="20"/>
       <c r="C540" s="13"/>
@@ -12109,7 +12119,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40"/>
       <c r="B541" s="20"/>
       <c r="C541" s="13"/>
@@ -12125,7 +12135,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40"/>
       <c r="B542" s="20"/>
       <c r="C542" s="13"/>
@@ -12141,7 +12151,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40"/>
       <c r="B543" s="20"/>
       <c r="C543" s="13"/>
@@ -12157,7 +12167,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40"/>
       <c r="B544" s="20"/>
       <c r="C544" s="13"/>
@@ -12173,7 +12183,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40"/>
       <c r="B545" s="20"/>
       <c r="C545" s="13"/>
@@ -12189,7 +12199,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40"/>
       <c r="B546" s="20"/>
       <c r="C546" s="13"/>
@@ -12205,7 +12215,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40"/>
       <c r="B547" s="20"/>
       <c r="C547" s="13"/>
@@ -12221,7 +12231,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40"/>
       <c r="B548" s="20"/>
       <c r="C548" s="13"/>
@@ -12237,7 +12247,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40"/>
       <c r="B549" s="20"/>
       <c r="C549" s="13"/>
@@ -12253,7 +12263,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40"/>
       <c r="B550" s="20"/>
       <c r="C550" s="13"/>
@@ -12269,7 +12279,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40"/>
       <c r="B551" s="20"/>
       <c r="C551" s="13"/>
@@ -12285,7 +12295,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40"/>
       <c r="B552" s="20"/>
       <c r="C552" s="13"/>
@@ -12301,7 +12311,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40"/>
       <c r="B553" s="20"/>
       <c r="C553" s="13"/>
@@ -12317,7 +12327,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="20"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40"/>
       <c r="B554" s="20"/>
       <c r="C554" s="13"/>
@@ -12333,7 +12343,7 @@
       <c r="J554" s="11"/>
       <c r="K554" s="20"/>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40"/>
       <c r="B555" s="20"/>
       <c r="C555" s="13"/>
@@ -12349,7 +12359,7 @@
       <c r="J555" s="11"/>
       <c r="K555" s="20"/>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40"/>
       <c r="B556" s="20"/>
       <c r="C556" s="13"/>
@@ -12365,7 +12375,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40"/>
       <c r="B557" s="20"/>
       <c r="C557" s="13"/>
@@ -12381,7 +12391,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40"/>
       <c r="B558" s="20"/>
       <c r="C558" s="13"/>
@@ -12397,7 +12407,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40"/>
       <c r="B559" s="20"/>
       <c r="C559" s="13"/>
@@ -12413,7 +12423,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40"/>
       <c r="B560" s="20"/>
       <c r="C560" s="13"/>
@@ -12429,7 +12439,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="20"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40"/>
       <c r="B561" s="20"/>
       <c r="C561" s="13"/>
@@ -12445,7 +12455,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="20"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40"/>
       <c r="B562" s="20"/>
       <c r="C562" s="13"/>
@@ -12461,7 +12471,7 @@
       <c r="J562" s="11"/>
       <c r="K562" s="20"/>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40"/>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
@@ -12477,7 +12487,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40"/>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
@@ -12493,7 +12503,7 @@
       <c r="J564" s="11"/>
       <c r="K564" s="20"/>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40"/>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
@@ -12509,7 +12519,7 @@
       <c r="J565" s="11"/>
       <c r="K565" s="20"/>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40"/>
       <c r="B566" s="20"/>
       <c r="C566" s="13"/>
@@ -12525,7 +12535,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40"/>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
@@ -12541,7 +12551,7 @@
       <c r="J567" s="11"/>
       <c r="K567" s="20"/>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40"/>
       <c r="B568" s="20"/>
       <c r="C568" s="13"/>
@@ -12557,7 +12567,7 @@
       <c r="J568" s="11"/>
       <c r="K568" s="20"/>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40"/>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -12573,7 +12583,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40"/>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -12589,7 +12599,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="20"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40"/>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -12605,7 +12615,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40"/>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -12621,7 +12631,7 @@
       <c r="J572" s="11"/>
       <c r="K572" s="20"/>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40"/>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -12637,7 +12647,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="20"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40"/>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
@@ -12653,7 +12663,7 @@
       <c r="J574" s="11"/>
       <c r="K574" s="20"/>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40"/>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
@@ -12669,7 +12679,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40"/>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -12685,7 +12695,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40"/>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -12701,7 +12711,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40"/>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -12717,7 +12727,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40"/>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
@@ -12733,7 +12743,7 @@
       <c r="J579" s="11"/>
       <c r="K579" s="20"/>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40"/>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
@@ -12749,7 +12759,7 @@
       <c r="J580" s="11"/>
       <c r="K580" s="20"/>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40"/>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
@@ -12765,7 +12775,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40"/>
       <c r="B582" s="20"/>
       <c r="C582" s="13"/>
@@ -12781,7 +12791,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40"/>
       <c r="B583" s="20"/>
       <c r="C583" s="13"/>
@@ -12797,7 +12807,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40"/>
       <c r="B584" s="20"/>
       <c r="C584" s="13"/>
@@ -12813,7 +12823,7 @@
       <c r="J584" s="11"/>
       <c r="K584" s="20"/>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40"/>
       <c r="B585" s="20"/>
       <c r="C585" s="13"/>
@@ -12829,7 +12839,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40"/>
       <c r="B586" s="20"/>
       <c r="C586" s="13"/>
@@ -12845,7 +12855,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40"/>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
@@ -12861,7 +12871,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40"/>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
@@ -12877,7 +12887,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40"/>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
@@ -12893,7 +12903,7 @@
       <c r="J589" s="11"/>
       <c r="K589" s="20"/>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40"/>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
@@ -12909,7 +12919,7 @@
       <c r="J590" s="11"/>
       <c r="K590" s="20"/>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40"/>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
@@ -12925,7 +12935,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40"/>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -12941,7 +12951,7 @@
       <c r="J592" s="11"/>
       <c r="K592" s="20"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40"/>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -12957,7 +12967,7 @@
       <c r="J593" s="11"/>
       <c r="K593" s="20"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40"/>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -12973,7 +12983,7 @@
       <c r="J594" s="11"/>
       <c r="K594" s="20"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40"/>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -12989,7 +12999,7 @@
       <c r="J595" s="11"/>
       <c r="K595" s="20"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40"/>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -13005,7 +13015,7 @@
       <c r="J596" s="11"/>
       <c r="K596" s="20"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40"/>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -13021,7 +13031,7 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40"/>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -13037,7 +13047,7 @@
       <c r="J598" s="11"/>
       <c r="K598" s="20"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40"/>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -13053,7 +13063,7 @@
       <c r="J599" s="11"/>
       <c r="K599" s="20"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40"/>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -13069,7 +13079,7 @@
       <c r="J600" s="11"/>
       <c r="K600" s="20"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40"/>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -13085,7 +13095,7 @@
       <c r="J601" s="11"/>
       <c r="K601" s="20"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40"/>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -13101,7 +13111,7 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40"/>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -13117,7 +13127,7 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40"/>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -13133,7 +13143,7 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40"/>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -13149,7 +13159,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40"/>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -13165,7 +13175,7 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40"/>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -13181,7 +13191,7 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40"/>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -13197,7 +13207,7 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40"/>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -13213,7 +13223,7 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40"/>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -13229,7 +13239,7 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40"/>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
@@ -13245,7 +13255,7 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40"/>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
@@ -13261,7 +13271,7 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40"/>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
@@ -13277,7 +13287,7 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40"/>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
@@ -13293,7 +13303,7 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40"/>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
@@ -13309,7 +13319,7 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40"/>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
@@ -13325,7 +13335,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40"/>
       <c r="B617" s="20"/>
       <c r="C617" s="13"/>
@@ -13341,7 +13351,7 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40"/>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
@@ -13357,7 +13367,7 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40"/>
       <c r="B619" s="20"/>
       <c r="C619" s="13"/>
@@ -13373,7 +13383,7 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40"/>
       <c r="B620" s="20"/>
       <c r="C620" s="13"/>
@@ -13389,7 +13399,7 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40"/>
       <c r="B621" s="20"/>
       <c r="C621" s="13"/>
@@ -13405,7 +13415,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40"/>
       <c r="B622" s="20"/>
       <c r="C622" s="13"/>
@@ -13421,7 +13431,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40"/>
       <c r="B623" s="20"/>
       <c r="C623" s="13"/>
@@ -13437,7 +13447,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40"/>
       <c r="B624" s="20"/>
       <c r="C624" s="13"/>
@@ -13453,7 +13463,7 @@
       <c r="J624" s="11"/>
       <c r="K624" s="20"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="40"/>
       <c r="B625" s="20"/>
       <c r="C625" s="13"/>
@@ -13469,7 +13479,7 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40"/>
       <c r="B626" s="20"/>
       <c r="C626" s="13"/>
@@ -13485,7 +13495,7 @@
       <c r="J626" s="11"/>
       <c r="K626" s="20"/>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40"/>
       <c r="B627" s="20"/>
       <c r="C627" s="13"/>
@@ -13501,7 +13511,7 @@
       <c r="J627" s="11"/>
       <c r="K627" s="20"/>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="40"/>
       <c r="B628" s="20"/>
       <c r="C628" s="13"/>
@@ -13517,7 +13527,7 @@
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="40"/>
       <c r="B629" s="20"/>
       <c r="C629" s="13"/>
@@ -13533,7 +13543,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="40"/>
       <c r="B630" s="20"/>
       <c r="C630" s="13"/>
@@ -13549,7 +13559,7 @@
       <c r="J630" s="11"/>
       <c r="K630" s="20"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="40"/>
       <c r="B631" s="20"/>
       <c r="C631" s="13"/>
@@ -13565,7 +13575,7 @@
       <c r="J631" s="11"/>
       <c r="K631" s="20"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="40"/>
       <c r="B632" s="20"/>
       <c r="C632" s="13"/>
@@ -13581,7 +13591,7 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="40"/>
       <c r="B633" s="20"/>
       <c r="C633" s="13"/>
@@ -13597,7 +13607,7 @@
       <c r="J633" s="11"/>
       <c r="K633" s="20"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="40"/>
       <c r="B634" s="20"/>
       <c r="C634" s="13"/>
@@ -13613,7 +13623,7 @@
       <c r="J634" s="11"/>
       <c r="K634" s="20"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="40"/>
       <c r="B635" s="20"/>
       <c r="C635" s="13"/>
@@ -13629,7 +13639,7 @@
       <c r="J635" s="11"/>
       <c r="K635" s="20"/>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="40"/>
       <c r="B636" s="20"/>
       <c r="C636" s="13"/>
@@ -13645,7 +13655,7 @@
       <c r="J636" s="11"/>
       <c r="K636" s="20"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="40"/>
       <c r="B637" s="20"/>
       <c r="C637" s="13"/>
@@ -13661,7 +13671,7 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="40"/>
       <c r="B638" s="20"/>
       <c r="C638" s="13"/>
@@ -13677,7 +13687,7 @@
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="40"/>
       <c r="B639" s="20"/>
       <c r="C639" s="13"/>
@@ -13693,7 +13703,7 @@
       <c r="J639" s="11"/>
       <c r="K639" s="20"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="40"/>
       <c r="B640" s="20"/>
       <c r="C640" s="13"/>
@@ -13709,7 +13719,7 @@
       <c r="J640" s="11"/>
       <c r="K640" s="20"/>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="40"/>
       <c r="B641" s="20"/>
       <c r="C641" s="13"/>
@@ -13725,7 +13735,7 @@
       <c r="J641" s="11"/>
       <c r="K641" s="20"/>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="40"/>
       <c r="B642" s="20"/>
       <c r="C642" s="13"/>
@@ -13741,7 +13751,7 @@
       <c r="J642" s="11"/>
       <c r="K642" s="20"/>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="40"/>
       <c r="B643" s="20"/>
       <c r="C643" s="13"/>
@@ -13757,7 +13767,7 @@
       <c r="J643" s="11"/>
       <c r="K643" s="20"/>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="40"/>
       <c r="B644" s="20"/>
       <c r="C644" s="13"/>
@@ -13773,7 +13783,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="40"/>
       <c r="B645" s="20"/>
       <c r="C645" s="13"/>
@@ -13789,7 +13799,7 @@
       <c r="J645" s="11"/>
       <c r="K645" s="20"/>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="40"/>
       <c r="B646" s="20"/>
       <c r="C646" s="13"/>
@@ -13805,7 +13815,7 @@
       <c r="J646" s="11"/>
       <c r="K646" s="20"/>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="40"/>
       <c r="B647" s="20"/>
       <c r="C647" s="13"/>
@@ -13821,7 +13831,7 @@
       <c r="J647" s="11"/>
       <c r="K647" s="20"/>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="40"/>
       <c r="B648" s="20"/>
       <c r="C648" s="13"/>
@@ -13837,7 +13847,7 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="40"/>
       <c r="B649" s="20"/>
       <c r="C649" s="13"/>
@@ -13853,7 +13863,7 @@
       <c r="J649" s="11"/>
       <c r="K649" s="20"/>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="40"/>
       <c r="B650" s="20"/>
       <c r="C650" s="13"/>
@@ -13869,7 +13879,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="40"/>
       <c r="B651" s="20"/>
       <c r="C651" s="13"/>
@@ -13885,7 +13895,7 @@
       <c r="J651" s="11"/>
       <c r="K651" s="20"/>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="40"/>
       <c r="B652" s="20"/>
       <c r="C652" s="13"/>
@@ -13901,7 +13911,7 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="40"/>
       <c r="B653" s="20"/>
       <c r="C653" s="13"/>
@@ -13917,7 +13927,7 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="40"/>
       <c r="B654" s="20"/>
       <c r="C654" s="13"/>
@@ -13933,7 +13943,7 @@
       <c r="J654" s="11"/>
       <c r="K654" s="20"/>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="40"/>
       <c r="B655" s="20"/>
       <c r="C655" s="13"/>
@@ -13949,7 +13959,7 @@
       <c r="J655" s="11"/>
       <c r="K655" s="20"/>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="40"/>
       <c r="B656" s="20"/>
       <c r="C656" s="13"/>
@@ -13965,7 +13975,7 @@
       <c r="J656" s="11"/>
       <c r="K656" s="20"/>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="40"/>
       <c r="B657" s="20"/>
       <c r="C657" s="13"/>
@@ -13981,7 +13991,7 @@
       <c r="J657" s="11"/>
       <c r="K657" s="20"/>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="40"/>
       <c r="B658" s="20"/>
       <c r="C658" s="13"/>
@@ -13997,7 +14007,7 @@
       <c r="J658" s="11"/>
       <c r="K658" s="20"/>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="40"/>
       <c r="B659" s="20"/>
       <c r="C659" s="13"/>
@@ -14013,7 +14023,7 @@
       <c r="J659" s="11"/>
       <c r="K659" s="20"/>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="40"/>
       <c r="B660" s="20"/>
       <c r="C660" s="13"/>
@@ -14029,7 +14039,7 @@
       <c r="J660" s="11"/>
       <c r="K660" s="20"/>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="40"/>
       <c r="B661" s="20"/>
       <c r="C661" s="13"/>
@@ -14045,7 +14055,7 @@
       <c r="J661" s="11"/>
       <c r="K661" s="20"/>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="40"/>
       <c r="B662" s="20"/>
       <c r="C662" s="13"/>
@@ -14061,7 +14071,7 @@
       <c r="J662" s="11"/>
       <c r="K662" s="20"/>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="40"/>
       <c r="B663" s="20"/>
       <c r="C663" s="13"/>
@@ -14077,7 +14087,7 @@
       <c r="J663" s="11"/>
       <c r="K663" s="20"/>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="40"/>
       <c r="B664" s="20"/>
       <c r="C664" s="13"/>
@@ -14093,7 +14103,7 @@
       <c r="J664" s="11"/>
       <c r="K664" s="20"/>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="40"/>
       <c r="B665" s="20"/>
       <c r="C665" s="13"/>
@@ -14109,7 +14119,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="40"/>
       <c r="B666" s="20"/>
       <c r="C666" s="13"/>
@@ -14125,7 +14135,7 @@
       <c r="J666" s="11"/>
       <c r="K666" s="20"/>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="40"/>
       <c r="B667" s="20"/>
       <c r="C667" s="13"/>
@@ -14141,7 +14151,7 @@
       <c r="J667" s="11"/>
       <c r="K667" s="20"/>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="40"/>
       <c r="B668" s="20"/>
       <c r="C668" s="13"/>
@@ -14157,7 +14167,7 @@
       <c r="J668" s="11"/>
       <c r="K668" s="20"/>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40"/>
       <c r="B669" s="20"/>
       <c r="C669" s="13"/>
@@ -14173,7 +14183,7 @@
       <c r="J669" s="11"/>
       <c r="K669" s="20"/>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="40"/>
       <c r="B670" s="20"/>
       <c r="C670" s="13"/>
@@ -14189,7 +14199,7 @@
       <c r="J670" s="11"/>
       <c r="K670" s="20"/>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="40"/>
       <c r="B671" s="20"/>
       <c r="C671" s="13"/>
@@ -14205,7 +14215,7 @@
       <c r="J671" s="11"/>
       <c r="K671" s="20"/>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="40"/>
       <c r="B672" s="20"/>
       <c r="C672" s="13"/>
@@ -14221,7 +14231,7 @@
       <c r="J672" s="11"/>
       <c r="K672" s="20"/>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40"/>
       <c r="B673" s="20"/>
       <c r="C673" s="13"/>
@@ -14237,7 +14247,7 @@
       <c r="J673" s="11"/>
       <c r="K673" s="20"/>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="40"/>
       <c r="B674" s="20"/>
       <c r="C674" s="13"/>
@@ -14253,7 +14263,7 @@
       <c r="J674" s="11"/>
       <c r="K674" s="20"/>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="40"/>
       <c r="B675" s="20"/>
       <c r="C675" s="13"/>
@@ -14269,7 +14279,7 @@
       <c r="J675" s="11"/>
       <c r="K675" s="20"/>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="40"/>
       <c r="B676" s="20"/>
       <c r="C676" s="13"/>
@@ -14285,7 +14295,7 @@
       <c r="J676" s="11"/>
       <c r="K676" s="20"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="40"/>
       <c r="B677" s="20"/>
       <c r="C677" s="13"/>
@@ -14301,7 +14311,7 @@
       <c r="J677" s="11"/>
       <c r="K677" s="20"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40"/>
       <c r="B678" s="20"/>
       <c r="C678" s="13"/>
@@ -14317,7 +14327,7 @@
       <c r="J678" s="11"/>
       <c r="K678" s="20"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="40"/>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
@@ -14333,7 +14343,7 @@
       <c r="J679" s="11"/>
       <c r="K679" s="20"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="40"/>
       <c r="B680" s="20"/>
       <c r="C680" s="13"/>
@@ -14349,7 +14359,7 @@
       <c r="J680" s="11"/>
       <c r="K680" s="20"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="40"/>
       <c r="B681" s="20"/>
       <c r="C681" s="13"/>
@@ -14365,7 +14375,7 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="40"/>
       <c r="B682" s="20"/>
       <c r="C682" s="13"/>
@@ -14381,7 +14391,7 @@
       <c r="J682" s="11"/>
       <c r="K682" s="20"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="40"/>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
@@ -14397,7 +14407,7 @@
       <c r="J683" s="11"/>
       <c r="K683" s="20"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="40"/>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
@@ -14413,7 +14423,7 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="40"/>
       <c r="B685" s="20"/>
       <c r="C685" s="13"/>
@@ -14429,7 +14439,7 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="40"/>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
@@ -14445,7 +14455,7 @@
       <c r="J686" s="11"/>
       <c r="K686" s="20"/>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="40"/>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -14461,7 +14471,7 @@
       <c r="J687" s="11"/>
       <c r="K687" s="20"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="40"/>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -14477,7 +14487,7 @@
       <c r="J688" s="11"/>
       <c r="K688" s="20"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="40"/>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
@@ -14493,7 +14503,7 @@
       <c r="J689" s="11"/>
       <c r="K689" s="20"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="40"/>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -14509,7 +14519,7 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="40"/>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
@@ -14525,7 +14535,7 @@
       <c r="J691" s="11"/>
       <c r="K691" s="20"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="40"/>
       <c r="B692" s="20"/>
       <c r="C692" s="13"/>
@@ -14541,7 +14551,7 @@
       <c r="J692" s="11"/>
       <c r="K692" s="20"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="40"/>
       <c r="B693" s="20"/>
       <c r="C693" s="13"/>
@@ -14557,7 +14567,7 @@
       <c r="J693" s="11"/>
       <c r="K693" s="20"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="40"/>
       <c r="B694" s="20"/>
       <c r="C694" s="13"/>
@@ -14573,7 +14583,7 @@
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="40"/>
       <c r="B695" s="20"/>
       <c r="C695" s="13"/>
@@ -14589,7 +14599,7 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="40"/>
       <c r="B696" s="20"/>
       <c r="C696" s="13"/>
@@ -14605,7 +14615,7 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="40"/>
       <c r="B697" s="20"/>
       <c r="C697" s="13"/>
@@ -14621,7 +14631,7 @@
       <c r="J697" s="11"/>
       <c r="K697" s="20"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="40"/>
       <c r="B698" s="20"/>
       <c r="C698" s="13"/>
@@ -14637,7 +14647,7 @@
       <c r="J698" s="11"/>
       <c r="K698" s="20"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="40"/>
       <c r="B699" s="20"/>
       <c r="C699" s="13"/>
@@ -14653,7 +14663,7 @@
       <c r="J699" s="11"/>
       <c r="K699" s="20"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="40"/>
       <c r="B700" s="20"/>
       <c r="C700" s="13"/>
@@ -14669,7 +14679,7 @@
       <c r="J700" s="11"/>
       <c r="K700" s="20"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="40"/>
       <c r="B701" s="20"/>
       <c r="C701" s="13"/>
@@ -14685,7 +14695,7 @@
       <c r="J701" s="11"/>
       <c r="K701" s="20"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="40"/>
       <c r="B702" s="20"/>
       <c r="C702" s="13"/>
@@ -14701,7 +14711,7 @@
       <c r="J702" s="11"/>
       <c r="K702" s="20"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="40"/>
       <c r="B703" s="20"/>
       <c r="C703" s="13"/>
@@ -14717,7 +14727,7 @@
       <c r="J703" s="11"/>
       <c r="K703" s="20"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="40"/>
       <c r="B704" s="20"/>
       <c r="C704" s="13"/>
@@ -14733,7 +14743,7 @@
       <c r="J704" s="11"/>
       <c r="K704" s="20"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="40"/>
       <c r="B705" s="20"/>
       <c r="C705" s="13"/>
@@ -14749,7 +14759,7 @@
       <c r="J705" s="11"/>
       <c r="K705" s="20"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="40"/>
       <c r="B706" s="20"/>
       <c r="C706" s="13"/>
@@ -14765,7 +14775,7 @@
       <c r="J706" s="11"/>
       <c r="K706" s="20"/>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="40"/>
       <c r="B707" s="20"/>
       <c r="C707" s="13"/>
@@ -14781,7 +14791,7 @@
       <c r="J707" s="11"/>
       <c r="K707" s="20"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A708" s="40"/>
       <c r="B708" s="20"/>
       <c r="C708" s="13"/>
@@ -14797,7 +14807,7 @@
       <c r="J708" s="11"/>
       <c r="K708" s="20"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A709" s="40"/>
       <c r="B709" s="20"/>
       <c r="C709" s="13"/>
@@ -14813,7 +14823,7 @@
       <c r="J709" s="11"/>
       <c r="K709" s="20"/>
     </row>
-    <row r="710" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A710" s="40"/>
       <c r="B710" s="20"/>
       <c r="C710" s="13"/>
@@ -14829,7 +14839,7 @@
       <c r="J710" s="11"/>
       <c r="K710" s="20"/>
     </row>
-    <row r="711" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A711" s="40"/>
       <c r="B711" s="20"/>
       <c r="C711" s="13"/>
@@ -14845,7 +14855,7 @@
       <c r="J711" s="11"/>
       <c r="K711" s="20"/>
     </row>
-    <row r="712" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A712" s="40"/>
       <c r="B712" s="20"/>
       <c r="C712" s="13"/>
@@ -14861,7 +14871,7 @@
       <c r="J712" s="11"/>
       <c r="K712" s="20"/>
     </row>
-    <row r="713" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A713" s="40"/>
       <c r="B713" s="20"/>
       <c r="C713" s="13"/>
@@ -14877,7 +14887,7 @@
       <c r="J713" s="11"/>
       <c r="K713" s="20"/>
     </row>
-    <row r="714" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A714" s="40"/>
       <c r="B714" s="20"/>
       <c r="C714" s="13"/>
@@ -14893,7 +14903,7 @@
       <c r="J714" s="11"/>
       <c r="K714" s="20"/>
     </row>
-    <row r="715" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A715" s="40"/>
       <c r="B715" s="20"/>
       <c r="C715" s="13"/>
@@ -14909,7 +14919,7 @@
       <c r="J715" s="11"/>
       <c r="K715" s="20"/>
     </row>
-    <row r="716" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A716" s="40"/>
       <c r="B716" s="20"/>
       <c r="C716" s="13"/>
@@ -14925,7 +14935,7 @@
       <c r="J716" s="11"/>
       <c r="K716" s="20"/>
     </row>
-    <row r="717" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A717" s="40"/>
       <c r="B717" s="20"/>
       <c r="C717" s="13"/>
@@ -14941,7 +14951,7 @@
       <c r="J717" s="11"/>
       <c r="K717" s="20"/>
     </row>
-    <row r="718" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A718" s="40"/>
       <c r="B718" s="20"/>
       <c r="C718" s="13"/>
@@ -14957,7 +14967,7 @@
       <c r="J718" s="11"/>
       <c r="K718" s="20"/>
     </row>
-    <row r="719" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A719" s="40"/>
       <c r="B719" s="20"/>
       <c r="C719" s="13"/>
@@ -14973,7 +14983,7 @@
       <c r="J719" s="11"/>
       <c r="K719" s="20"/>
     </row>
-    <row r="720" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A720" s="40"/>
       <c r="B720" s="20"/>
       <c r="C720" s="13"/>
@@ -14989,7 +14999,7 @@
       <c r="J720" s="11"/>
       <c r="K720" s="20"/>
     </row>
-    <row r="721" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A721" s="40"/>
       <c r="B721" s="20"/>
       <c r="C721" s="13"/>
@@ -15005,7 +15015,7 @@
       <c r="J721" s="11"/>
       <c r="K721" s="20"/>
     </row>
-    <row r="722" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A722" s="40"/>
       <c r="B722" s="20"/>
       <c r="C722" s="13"/>
@@ -15021,7 +15031,7 @@
       <c r="J722" s="11"/>
       <c r="K722" s="20"/>
     </row>
-    <row r="723" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A723" s="40"/>
       <c r="B723" s="20"/>
       <c r="C723" s="13"/>
@@ -15037,7 +15047,7 @@
       <c r="J723" s="11"/>
       <c r="K723" s="20"/>
     </row>
-    <row r="724" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A724" s="40"/>
       <c r="B724" s="20"/>
       <c r="C724" s="13"/>
@@ -15053,7 +15063,7 @@
       <c r="J724" s="11"/>
       <c r="K724" s="20"/>
     </row>
-    <row r="725" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A725" s="40"/>
       <c r="B725" s="20"/>
       <c r="C725" s="13"/>
@@ -15069,7 +15079,7 @@
       <c r="J725" s="11"/>
       <c r="K725" s="20"/>
     </row>
-    <row r="726" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A726" s="40"/>
       <c r="B726" s="20"/>
       <c r="C726" s="13"/>
@@ -15085,7 +15095,7 @@
       <c r="J726" s="11"/>
       <c r="K726" s="20"/>
     </row>
-    <row r="727" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A727" s="40"/>
       <c r="B727" s="20"/>
       <c r="C727" s="13"/>
@@ -15101,7 +15111,7 @@
       <c r="J727" s="11"/>
       <c r="K727" s="20"/>
     </row>
-    <row r="728" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A728" s="40"/>
       <c r="B728" s="20"/>
       <c r="C728" s="13"/>
@@ -15117,7 +15127,7 @@
       <c r="J728" s="11"/>
       <c r="K728" s="20"/>
     </row>
-    <row r="729" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A729" s="40"/>
       <c r="B729" s="20"/>
       <c r="C729" s="13"/>
@@ -15133,7 +15143,7 @@
       <c r="J729" s="11"/>
       <c r="K729" s="20"/>
     </row>
-    <row r="730" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A730" s="40"/>
       <c r="B730" s="20"/>
       <c r="C730" s="13"/>
@@ -15149,7 +15159,7 @@
       <c r="J730" s="11"/>
       <c r="K730" s="20"/>
     </row>
-    <row r="731" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A731" s="40"/>
       <c r="B731" s="20"/>
       <c r="C731" s="13"/>
@@ -15165,7 +15175,7 @@
       <c r="J731" s="11"/>
       <c r="K731" s="20"/>
     </row>
-    <row r="732" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A732" s="40"/>
       <c r="B732" s="20"/>
       <c r="C732" s="13"/>
@@ -15181,7 +15191,7 @@
       <c r="J732" s="11"/>
       <c r="K732" s="20"/>
     </row>
-    <row r="733" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A733" s="40"/>
       <c r="B733" s="20"/>
       <c r="C733" s="13"/>
@@ -15197,7 +15207,7 @@
       <c r="J733" s="11"/>
       <c r="K733" s="20"/>
     </row>
-    <row r="734" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A734" s="40"/>
       <c r="B734" s="20"/>
       <c r="C734" s="13"/>
@@ -15213,7 +15223,7 @@
       <c r="J734" s="11"/>
       <c r="K734" s="20"/>
     </row>
-    <row r="735" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A735" s="40"/>
       <c r="B735" s="20"/>
       <c r="C735" s="13"/>
@@ -15229,7 +15239,7 @@
       <c r="J735" s="11"/>
       <c r="K735" s="20"/>
     </row>
-    <row r="736" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A736" s="40"/>
       <c r="B736" s="20"/>
       <c r="C736" s="13"/>
@@ -15245,7 +15255,7 @@
       <c r="J736" s="11"/>
       <c r="K736" s="20"/>
     </row>
-    <row r="737" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A737" s="40"/>
       <c r="B737" s="20"/>
       <c r="C737" s="13"/>
@@ -15261,7 +15271,7 @@
       <c r="J737" s="11"/>
       <c r="K737" s="20"/>
     </row>
-    <row r="738" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A738" s="40"/>
       <c r="B738" s="20"/>
       <c r="C738" s="13"/>
@@ -15277,7 +15287,7 @@
       <c r="J738" s="11"/>
       <c r="K738" s="20"/>
     </row>
-    <row r="739" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A739" s="40"/>
       <c r="B739" s="20"/>
       <c r="C739" s="13"/>
@@ -15293,7 +15303,7 @@
       <c r="J739" s="11"/>
       <c r="K739" s="20"/>
     </row>
-    <row r="740" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A740" s="40"/>
       <c r="B740" s="20"/>
       <c r="C740" s="13"/>
@@ -15309,7 +15319,7 @@
       <c r="J740" s="11"/>
       <c r="K740" s="20"/>
     </row>
-    <row r="741" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A741" s="40"/>
       <c r="B741" s="20"/>
       <c r="C741" s="13"/>
@@ -15325,7 +15335,7 @@
       <c r="J741" s="11"/>
       <c r="K741" s="20"/>
     </row>
-    <row r="742" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A742" s="40"/>
       <c r="B742" s="20"/>
       <c r="C742" s="13"/>
@@ -15341,7 +15351,7 @@
       <c r="J742" s="11"/>
       <c r="K742" s="20"/>
     </row>
-    <row r="743" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A743" s="40"/>
       <c r="B743" s="20"/>
       <c r="C743" s="13"/>
@@ -15357,7 +15367,7 @@
       <c r="J743" s="11"/>
       <c r="K743" s="20"/>
     </row>
-    <row r="744" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A744" s="40"/>
       <c r="B744" s="20"/>
       <c r="C744" s="13"/>
@@ -15373,7 +15383,7 @@
       <c r="J744" s="11"/>
       <c r="K744" s="20"/>
     </row>
-    <row r="745" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A745" s="40"/>
       <c r="B745" s="20"/>
       <c r="C745" s="13"/>
@@ -15389,7 +15399,7 @@
       <c r="J745" s="11"/>
       <c r="K745" s="20"/>
     </row>
-    <row r="746" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A746" s="40"/>
       <c r="B746" s="20"/>
       <c r="C746" s="13"/>
@@ -15405,7 +15415,7 @@
       <c r="J746" s="11"/>
       <c r="K746" s="20"/>
     </row>
-    <row r="747" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A747" s="40"/>
       <c r="B747" s="20"/>
       <c r="C747" s="13"/>
@@ -15421,7 +15431,7 @@
       <c r="J747" s="11"/>
       <c r="K747" s="20"/>
     </row>
-    <row r="748" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A748" s="40"/>
       <c r="B748" s="20"/>
       <c r="C748" s="13"/>
@@ -15437,7 +15447,7 @@
       <c r="J748" s="11"/>
       <c r="K748" s="20"/>
     </row>
-    <row r="749" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A749" s="40"/>
       <c r="B749" s="20"/>
       <c r="C749" s="13"/>
@@ -15453,7 +15463,7 @@
       <c r="J749" s="11"/>
       <c r="K749" s="20"/>
     </row>
-    <row r="750" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A750" s="40"/>
       <c r="B750" s="20"/>
       <c r="C750" s="13"/>
@@ -15469,7 +15479,7 @@
       <c r="J750" s="11"/>
       <c r="K750" s="20"/>
     </row>
-    <row r="751" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A751" s="40"/>
       <c r="B751" s="20"/>
       <c r="C751" s="13"/>
@@ -15485,7 +15495,7 @@
       <c r="J751" s="11"/>
       <c r="K751" s="20"/>
     </row>
-    <row r="752" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A752" s="40"/>
       <c r="B752" s="20"/>
       <c r="C752" s="13"/>
@@ -15501,7 +15511,7 @@
       <c r="J752" s="11"/>
       <c r="K752" s="20"/>
     </row>
-    <row r="753" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A753" s="40"/>
       <c r="B753" s="20"/>
       <c r="C753" s="13"/>
@@ -15517,7 +15527,7 @@
       <c r="J753" s="11"/>
       <c r="K753" s="20"/>
     </row>
-    <row r="754" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A754" s="40"/>
       <c r="B754" s="20"/>
       <c r="C754" s="13"/>
@@ -15533,7 +15543,7 @@
       <c r="J754" s="11"/>
       <c r="K754" s="20"/>
     </row>
-    <row r="755" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A755" s="40"/>
       <c r="B755" s="20"/>
       <c r="C755" s="13"/>
@@ -15549,7 +15559,7 @@
       <c r="J755" s="11"/>
       <c r="K755" s="20"/>
     </row>
-    <row r="756" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A756" s="40"/>
       <c r="B756" s="20"/>
       <c r="C756" s="13"/>
@@ -15565,7 +15575,7 @@
       <c r="J756" s="11"/>
       <c r="K756" s="20"/>
     </row>
-    <row r="757" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A757" s="40"/>
       <c r="B757" s="20"/>
       <c r="C757" s="13"/>
@@ -15581,7 +15591,7 @@
       <c r="J757" s="11"/>
       <c r="K757" s="20"/>
     </row>
-    <row r="758" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A758" s="40"/>
       <c r="B758" s="20"/>
       <c r="C758" s="13"/>
@@ -15597,7 +15607,7 @@
       <c r="J758" s="11"/>
       <c r="K758" s="20"/>
     </row>
-    <row r="759" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A759" s="40"/>
       <c r="B759" s="20"/>
       <c r="C759" s="13"/>
@@ -15613,7 +15623,7 @@
       <c r="J759" s="11"/>
       <c r="K759" s="20"/>
     </row>
-    <row r="760" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A760" s="40"/>
       <c r="B760" s="20"/>
       <c r="C760" s="13"/>
@@ -15629,7 +15639,7 @@
       <c r="J760" s="11"/>
       <c r="K760" s="20"/>
     </row>
-    <row r="761" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A761" s="40"/>
       <c r="B761" s="20"/>
       <c r="C761" s="13"/>
@@ -15645,7 +15655,7 @@
       <c r="J761" s="11"/>
       <c r="K761" s="20"/>
     </row>
-    <row r="762" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A762" s="40"/>
       <c r="B762" s="20"/>
       <c r="C762" s="13"/>
@@ -15661,7 +15671,7 @@
       <c r="J762" s="11"/>
       <c r="K762" s="20"/>
     </row>
-    <row r="763" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A763" s="40"/>
       <c r="B763" s="20"/>
       <c r="C763" s="13"/>
@@ -15677,7 +15687,7 @@
       <c r="J763" s="11"/>
       <c r="K763" s="20"/>
     </row>
-    <row r="764" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A764" s="40"/>
       <c r="B764" s="20"/>
       <c r="C764" s="13"/>
@@ -15693,7 +15703,7 @@
       <c r="J764" s="11"/>
       <c r="K764" s="20"/>
     </row>
-    <row r="765" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A765" s="40"/>
       <c r="B765" s="20"/>
       <c r="C765" s="13"/>
@@ -15709,7 +15719,7 @@
       <c r="J765" s="11"/>
       <c r="K765" s="20"/>
     </row>
-    <row r="766" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A766" s="40"/>
       <c r="B766" s="20"/>
       <c r="C766" s="13"/>
@@ -15725,7 +15735,7 @@
       <c r="J766" s="11"/>
       <c r="K766" s="20"/>
     </row>
-    <row r="767" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A767" s="40"/>
       <c r="B767" s="20"/>
       <c r="C767" s="13"/>
@@ -15741,7 +15751,7 @@
       <c r="J767" s="11"/>
       <c r="K767" s="20"/>
     </row>
-    <row r="768" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A768" s="40"/>
       <c r="B768" s="20"/>
       <c r="C768" s="13"/>
@@ -15757,7 +15767,7 @@
       <c r="J768" s="11"/>
       <c r="K768" s="20"/>
     </row>
-    <row r="769" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A769" s="40"/>
       <c r="B769" s="20"/>
       <c r="C769" s="13"/>
@@ -15773,7 +15783,7 @@
       <c r="J769" s="11"/>
       <c r="K769" s="20"/>
     </row>
-    <row r="770" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A770" s="40"/>
       <c r="B770" s="20"/>
       <c r="C770" s="13"/>
@@ -15789,7 +15799,7 @@
       <c r="J770" s="11"/>
       <c r="K770" s="20"/>
     </row>
-    <row r="771" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A771" s="40"/>
       <c r="B771" s="20"/>
       <c r="C771" s="13"/>
@@ -15805,7 +15815,7 @@
       <c r="J771" s="11"/>
       <c r="K771" s="20"/>
     </row>
-    <row r="772" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A772" s="40"/>
       <c r="B772" s="20"/>
       <c r="C772" s="13"/>
@@ -15821,7 +15831,7 @@
       <c r="J772" s="11"/>
       <c r="K772" s="20"/>
     </row>
-    <row r="773" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A773" s="40"/>
       <c r="B773" s="20"/>
       <c r="C773" s="13"/>
@@ -15837,7 +15847,7 @@
       <c r="J773" s="11"/>
       <c r="K773" s="20"/>
     </row>
-    <row r="774" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A774" s="40"/>
       <c r="B774" s="20"/>
       <c r="C774" s="13"/>
@@ -15853,7 +15863,7 @@
       <c r="J774" s="11"/>
       <c r="K774" s="20"/>
     </row>
-    <row r="775" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A775" s="40"/>
       <c r="B775" s="20"/>
       <c r="C775" s="13"/>
@@ -15869,7 +15879,7 @@
       <c r="J775" s="11"/>
       <c r="K775" s="20"/>
     </row>
-    <row r="776" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A776" s="40"/>
       <c r="B776" s="20"/>
       <c r="C776" s="13"/>
@@ -15885,7 +15895,7 @@
       <c r="J776" s="11"/>
       <c r="K776" s="20"/>
     </row>
-    <row r="777" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A777" s="40"/>
       <c r="B777" s="20"/>
       <c r="C777" s="13"/>
@@ -15901,7 +15911,7 @@
       <c r="J777" s="11"/>
       <c r="K777" s="20"/>
     </row>
-    <row r="778" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A778" s="40"/>
       <c r="B778" s="20"/>
       <c r="C778" s="13"/>
@@ -15917,7 +15927,7 @@
       <c r="J778" s="11"/>
       <c r="K778" s="20"/>
     </row>
-    <row r="779" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A779" s="40"/>
       <c r="B779" s="20"/>
       <c r="C779" s="13"/>
@@ -15933,7 +15943,7 @@
       <c r="J779" s="11"/>
       <c r="K779" s="20"/>
     </row>
-    <row r="780" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A780" s="40"/>
       <c r="B780" s="20"/>
       <c r="C780" s="13"/>
@@ -15949,7 +15959,7 @@
       <c r="J780" s="11"/>
       <c r="K780" s="20"/>
     </row>
-    <row r="781" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A781" s="40"/>
       <c r="B781" s="20"/>
       <c r="C781" s="13"/>
@@ -15965,7 +15975,7 @@
       <c r="J781" s="11"/>
       <c r="K781" s="20"/>
     </row>
-    <row r="782" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A782" s="40"/>
       <c r="B782" s="20"/>
       <c r="C782" s="13"/>
@@ -15981,7 +15991,7 @@
       <c r="J782" s="11"/>
       <c r="K782" s="20"/>
     </row>
-    <row r="783" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A783" s="40"/>
       <c r="B783" s="20"/>
       <c r="C783" s="13"/>
@@ -15997,7 +16007,7 @@
       <c r="J783" s="11"/>
       <c r="K783" s="20"/>
     </row>
-    <row r="784" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A784" s="40"/>
       <c r="B784" s="20"/>
       <c r="C784" s="13"/>
@@ -16013,7 +16023,7 @@
       <c r="J784" s="11"/>
       <c r="K784" s="20"/>
     </row>
-    <row r="785" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A785" s="40"/>
       <c r="B785" s="20"/>
       <c r="C785" s="13"/>
@@ -16029,7 +16039,7 @@
       <c r="J785" s="11"/>
       <c r="K785" s="20"/>
     </row>
-    <row r="786" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A786" s="40"/>
       <c r="B786" s="20"/>
       <c r="C786" s="13"/>
@@ -16045,7 +16055,7 @@
       <c r="J786" s="11"/>
       <c r="K786" s="20"/>
     </row>
-    <row r="787" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A787" s="40"/>
       <c r="B787" s="20"/>
       <c r="C787" s="13"/>
@@ -16061,7 +16071,7 @@
       <c r="J787" s="11"/>
       <c r="K787" s="20"/>
     </row>
-    <row r="788" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A788" s="40"/>
       <c r="B788" s="20"/>
       <c r="C788" s="13"/>
@@ -16077,7 +16087,7 @@
       <c r="J788" s="11"/>
       <c r="K788" s="20"/>
     </row>
-    <row r="789" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A789" s="40"/>
       <c r="B789" s="20"/>
       <c r="C789" s="13"/>
@@ -16093,7 +16103,7 @@
       <c r="J789" s="11"/>
       <c r="K789" s="20"/>
     </row>
-    <row r="790" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A790" s="40"/>
       <c r="B790" s="20"/>
       <c r="C790" s="13"/>
@@ -16109,7 +16119,7 @@
       <c r="J790" s="11"/>
       <c r="K790" s="20"/>
     </row>
-    <row r="791" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A791" s="40"/>
       <c r="B791" s="20"/>
       <c r="C791" s="13"/>
@@ -16125,7 +16135,7 @@
       <c r="J791" s="11"/>
       <c r="K791" s="20"/>
     </row>
-    <row r="792" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A792" s="40"/>
       <c r="B792" s="20"/>
       <c r="C792" s="13"/>
@@ -16141,7 +16151,7 @@
       <c r="J792" s="11"/>
       <c r="K792" s="20"/>
     </row>
-    <row r="793" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A793" s="40"/>
       <c r="B793" s="20"/>
       <c r="C793" s="13"/>
@@ -16157,7 +16167,7 @@
       <c r="J793" s="11"/>
       <c r="K793" s="20"/>
     </row>
-    <row r="794" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A794" s="41"/>
       <c r="B794" s="15"/>
       <c r="C794" s="42"/>
@@ -16188,10 +16198,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16214,28 +16224,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -16248,7 +16258,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -16277,7 +16287,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -16297,17 +16307,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -16328,7 +16338,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -16355,7 +16365,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -16381,7 +16391,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -16407,7 +16417,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -16433,7 +16443,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -16459,7 +16469,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -16485,7 +16495,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -16511,7 +16521,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -16537,7 +16547,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -16557,7 +16567,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -16577,7 +16587,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -16597,7 +16607,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -16618,7 +16628,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -16639,7 +16649,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -16660,7 +16670,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -16681,7 +16691,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -16702,7 +16712,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -16723,7 +16733,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -16744,7 +16754,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -16765,7 +16775,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -16786,7 +16796,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -16807,7 +16817,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -16828,7 +16838,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -16849,7 +16859,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -16870,7 +16880,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -16891,7 +16901,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -16912,7 +16922,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -16933,7 +16943,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -16954,7 +16964,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -16975,7 +16985,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -16996,7 +17006,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -17017,7 +17027,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -17026,7 +17036,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -17035,7 +17045,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -17044,7 +17054,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -17053,7 +17063,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -17062,7 +17072,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -17071,7 +17081,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -17080,7 +17090,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -17089,7 +17099,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -17098,7 +17108,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -17107,7 +17117,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -17116,7 +17126,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -17125,7 +17135,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -17134,7 +17144,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -17143,7 +17153,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -17152,7 +17162,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -17161,7 +17171,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -17170,7 +17180,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -17179,7 +17189,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -17188,7 +17198,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -17197,7 +17207,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -17206,7 +17216,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -17215,7 +17225,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -17224,7 +17234,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -17233,7 +17243,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -17242,7 +17252,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -17251,7 +17261,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -17260,7 +17270,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -17269,7 +17279,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -17278,7 +17288,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/JAVIER, HILARIO.xlsx
+++ b/REGULAR/JAVIER, HILARIO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B864A702-E9CF-436A-88EF-B426D8078B9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E06BA07-7D3D-44B5-8373-3C9383D1A4BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="133">
   <si>
     <t>PERIOD</t>
   </si>
@@ -445,10 +445,7 @@
     </r>
   </si>
   <si>
-    <t>TOTAL VL = 276.875</t>
-  </si>
-  <si>
-    <t>TOTAL SL = 371.875</t>
+    <t>6/5-9/2023</t>
   </si>
 </sst>
 </file>
@@ -835,6 +832,24 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -867,24 +882,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1495,9 +1492,9 @@
   <dimension ref="A2:K414"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="95" zoomScaleNormal="100" zoomScaleSheetLayoutView="95" workbookViewId="0">
-      <pane ySplit="3528" topLeftCell="A392" activePane="bottomLeft"/>
+      <pane ySplit="3528" topLeftCell="A389" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="B397" sqref="B397"/>
+      <selection pane="bottomLeft" activeCell="D398" sqref="D398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1519,62 +1516,62 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="56"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="58"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="56" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="50"/>
+      <c r="C3" s="56"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="57"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
+      <c r="J3" s="59"/>
+      <c r="K3" s="60"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="56"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -1600,18 +1597,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49" t="s">
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -1658,7 +1655,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>276.875</v>
+        <v>271.875</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -9524,11 +9521,15 @@
       <c r="A390" s="40">
         <v>45047</v>
       </c>
-      <c r="B390" s="20"/>
+      <c r="B390" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C390" s="13">
         <v>1.25</v>
       </c>
-      <c r="D390" s="39"/>
+      <c r="D390" s="39">
+        <v>5</v>
+      </c>
       <c r="E390" s="9"/>
       <c r="F390" s="20"/>
       <c r="G390" s="13">
@@ -9538,7 +9539,9 @@
       <c r="H390" s="39"/>
       <c r="I390" s="9"/>
       <c r="J390" s="11"/>
-      <c r="K390" s="20"/>
+      <c r="K390" s="20" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40">
@@ -9661,13 +9664,13 @@
       <c r="K396" s="20"/>
     </row>
     <row r="397" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A397" s="60"/>
-      <c r="B397" s="61" t="s">
+      <c r="A397" s="49"/>
+      <c r="B397" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="C397" s="62"/>
-      <c r="D397" s="61"/>
-      <c r="E397" s="63"/>
+      <c r="C397" s="51"/>
+      <c r="D397" s="50"/>
+      <c r="E397" s="52"/>
       <c r="F397" s="11"/>
       <c r="G397" s="13"/>
       <c r="H397" s="11"/>
@@ -9679,15 +9682,11 @@
       <c r="A398" s="40"/>
       <c r="B398" s="11"/>
       <c r="C398" s="13"/>
-      <c r="D398" s="64" t="s">
-        <v>132</v>
-      </c>
+      <c r="D398" s="53"/>
       <c r="E398" s="9"/>
       <c r="F398" s="11"/>
       <c r="G398" s="13"/>
-      <c r="H398" s="64" t="s">
-        <v>133</v>
-      </c>
+      <c r="H398" s="53"/>
       <c r="I398" s="9"/>
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
@@ -9701,13 +9700,13 @@
       <c r="D399" s="11"/>
       <c r="E399" s="9"/>
       <c r="F399" s="11"/>
-      <c r="G399" s="62" t="s">
+      <c r="G399" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="H399" s="61"/>
-      <c r="I399" s="63"/>
-      <c r="J399" s="61"/>
-      <c r="K399" s="65"/>
+      <c r="H399" s="50"/>
+      <c r="I399" s="52"/>
+      <c r="J399" s="50"/>
+      <c r="K399" s="54"/>
     </row>
     <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40"/>
@@ -9963,7 +9962,7 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
   </mergeCells>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
@@ -9994,7 +9993,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10012,17 +10011,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="J1" s="58" t="s">
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="J1" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
@@ -10084,6 +10083,14 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f>Sheet1!E9</f>
+        <v>271.875</v>
+      </c>
+      <c r="B6">
+        <f>Sheet1!I9</f>
+        <v>371.875</v>
+      </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -10097,12 +10104,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="45"/>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
